--- a/business documents/t schedule gantt chart.xlsx
+++ b/business documents/t schedule gantt chart.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15825" windowHeight="6735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15825" windowHeight="6735" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="air quality monitor" sheetId="1" r:id="rId1"/>
@@ -436,7 +436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
